--- a/Exercices/Block 6/Ex1_Capa_Fac_Model-Raph.xlsx
+++ b/Exercices/Block 6/Ex1_Capa_Fac_Model-Raph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitelibrebruxelles-my.sharepoint.com/personal/raphael_humblet_ulb_be/Documents/ULB/MA2/ULB-GEST-H501/Exercices/Block 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8542" documentId="13_ncr:1_{8DF67ADE-4AA3-F147-B528-E273360AA14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0D3531-9A6F-4301-840A-F4AE77EAC458}"/>
+  <xr:revisionPtr revIDLastSave="8591" documentId="13_ncr:1_{8DF67ADE-4AA3-F147-B528-E273360AA14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76844D5C-98E0-4DD7-847C-4A3DDBB64B7A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="9180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">"binaire"</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">binary</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -784,8 +784,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -799,6 +799,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>334910</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>420463</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147A88FB-BF4D-9D72-8B57-EDF2F6022705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6716660" y="3248025"/>
+          <a:ext cx="5991053" cy="1991178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,20 +1143,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="59" t="s">
         <v>21</v>
@@ -1129,7 +1178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>2</v>
       </c>
@@ -1350,10 +1399,10 @@
       <c r="I9" s="27"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
   </sheetData>
@@ -1371,18 +1420,18 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="59" t="s">
         <v>21</v>
@@ -1418,7 +1467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +1532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -1549,7 +1598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +1631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -1615,7 +1664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>2</v>
       </c>
@@ -1639,10 +1688,10 @@
       <c r="I9" s="27"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="59" t="s">
         <v>23</v>
@@ -1675,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1764,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1848,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1890,7 +1939,7 @@
         <v>6.9999999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>18</v>
       </c>
@@ -1917,14 +1966,14 @@
       </c>
       <c r="I18" s="22"/>
     </row>
-    <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1985,7 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
@@ -1948,7 +1997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +2007,7 @@
       </c>
       <c r="G23" s="62"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
@@ -1968,7 +2017,7 @@
       </c>
       <c r="G24" s="62"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1978,7 +2027,7 @@
       </c>
       <c r="G25" s="62"/>
     </row>
-    <row r="26" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>18</v>
       </c>
@@ -1992,7 +2041,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="62"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="42" t="s">
         <v>14</v>
@@ -2010,7 +2059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>8</v>
       </c>
@@ -2040,12 +2089,12 @@
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
     </row>
-    <row r="30" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>10</v>
       </c>
@@ -2064,6 +2113,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2182,18 +2232,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2213,18 +2263,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D10531C-F649-473A-B8C2-8AB9D45867B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F2134A-9F27-46BB-97DB-F239330D0065}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D10531C-F649-473A-B8C2-8AB9D45867B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>